--- a/trans_record.xlsx
+++ b/trans_record.xlsx
@@ -1,43 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="21600" xWindow="1515" yWindow="1515"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,26 +45,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -330,13 +331,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Pinyin</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>漸漸地</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>jiànjiàndì</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>gradually</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>